--- a/data/trans_camb/P33A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P33A-Edad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>0.1865747566103804</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>8.964120685746035</v>
+        <v>8.964120685746046</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.895785757981774</v>
+        <v>-5.669461357820135</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.368687940690124</v>
+        <v>2.360173149954326</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.267925016392594</v>
+        <v>-4.718163229219882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.43561138595419</v>
+        <v>3.227508179775623</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.60927318444608</v>
+        <v>-3.834876164430665</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.55855466537077</v>
+        <v>4.984936119520515</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.00455803313641</v>
+        <v>3.78758413220767</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.0185588587301</v>
+        <v>12.00543423757668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.274114427680144</v>
+        <v>7.249439478337793</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.2638692948175</v>
+        <v>16.19243559916356</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.114268201874071</v>
+        <v>3.979099987008098</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.86852655786561</v>
+        <v>12.91535989587535</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>0.00227684527275324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1093926969464146</v>
+        <v>0.1093926969464147</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06588307121826308</v>
+        <v>-0.06313363693835662</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.026599111988212</v>
+        <v>0.02758779238441795</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05396656115496166</v>
+        <v>-0.05953174578947847</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04238829936384769</v>
+        <v>0.04018435100322702</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04226489099406537</v>
+        <v>-0.04544275281701884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05419836381432054</v>
+        <v>0.05890094656134517</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.04712891645965596</v>
+        <v>0.04530961831249782</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1422173749435711</v>
+        <v>0.1428970872605091</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.09716254831022413</v>
+        <v>0.09966841073835596</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2156767286190314</v>
+        <v>0.2162187712824798</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05186762590849066</v>
+        <v>0.04896891625373964</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1610957548666246</v>
+        <v>0.1615191290837568</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-0.02266833317082773</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.642064610309417</v>
+        <v>5.642064610309405</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.187854748203421</v>
+        <v>-5.390421792876671</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.900001887653021</v>
+        <v>-1.752203430136122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.522480202904068</v>
+        <v>-3.529403682699953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.875767619846302</v>
+        <v>3.034795128025243</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.095365121294021</v>
+        <v>-3.258401262610289</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.745391639516458</v>
+        <v>2.142336979501617</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.265362114846134</v>
+        <v>3.110498777380116</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.996543590449948</v>
+        <v>8.191413210794746</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.523153098378745</v>
+        <v>7.072482176180041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.49254548701387</v>
+        <v>13.1930264479268</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.165385915858553</v>
+        <v>3.273654535529157</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.902886506475356</v>
+        <v>9.104944664373555</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.0002839080885245168</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07066367724408557</v>
+        <v>0.07066367724408543</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0607189229980575</v>
+        <v>-0.06272679657240506</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.0217215805218576</v>
+        <v>-0.02012502824597063</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04496422550390679</v>
+        <v>-0.0452754483355303</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0398894212588469</v>
+        <v>0.03866494786667588</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03795011409610387</v>
+        <v>-0.04046643030771238</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02105477709406534</v>
+        <v>0.0261711541894517</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04008171375957856</v>
+        <v>0.03801568924735923</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.09710692326710829</v>
+        <v>0.1005545851741021</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.09046214110226562</v>
+        <v>0.09833253543250063</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1864513949989302</v>
+        <v>0.182310556744687</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04050934512597604</v>
+        <v>0.04180601894615477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1134372478711021</v>
+        <v>0.116015012939614</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>-0.7422457002805305</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3857099853275203</v>
+        <v>0.3857099853275092</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.854833010731605</v>
@@ -944,7 +944,7 @@
         <v>0.680226030319131</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.077135352957804</v>
+        <v>2.077135352957826</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.69570957279914</v>
+        <v>-5.099123318794647</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.023747284201264</v>
+        <v>-4.188610435012397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.101385933482466</v>
+        <v>-2.643644321340583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7679160240453147</v>
+        <v>-0.4246547117610305</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.551226097579401</v>
+        <v>-2.393461191513374</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8662067641779397</v>
+        <v>-1.043495827872908</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.860643121628143</v>
+        <v>3.121786912250358</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.915640841132238</v>
+        <v>4.55674813736011</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.454516240571055</v>
+        <v>6.698862370918657</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.259762963434612</v>
+        <v>8.316727342517884</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.88512884858505</v>
+        <v>3.965836440337168</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.309005916098736</v>
+        <v>5.280069918780976</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.008944446055654656</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.004648005580342799</v>
+        <v>0.004648005580342666</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.02529615514028415</v>
@@ -1022,7 +1022,7 @@
         <v>0.008714992474917551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02661206446615949</v>
+        <v>0.02661206446615977</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05533906275687784</v>
+        <v>-0.05989665634063848</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04689832625970142</v>
+        <v>-0.049876081118832</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.04039498889177889</v>
+        <v>-0.03389102125348366</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01010112594650913</v>
+        <v>-0.005794591605439039</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0318325818987155</v>
+        <v>-0.03020518733498822</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01045532156363183</v>
+        <v>-0.01401004213905002</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.04803572972225696</v>
+        <v>0.0389081419435331</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.06028010809400854</v>
+        <v>0.05581079604387904</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.0914964353513039</v>
+        <v>0.09464227344910885</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1168294276528074</v>
+        <v>0.1179785822060809</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05138845001986697</v>
+        <v>0.05182668040350115</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06942984061265423</v>
+        <v>0.06898679614720656</v>
       </c>
     </row>
     <row r="22">
@@ -1092,19 +1092,19 @@
         <v>-3.009565816729087</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-4.203230073057229</v>
+        <v>-4.203230073057263</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.1201043939599744</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.835346911938797</v>
+        <v>3.835346911938808</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-1.549044466085103</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.2602916558539059</v>
+        <v>-0.260291655853917</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.35606459748033</v>
+        <v>-7.519803769732403</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.797212461729357</v>
+        <v>-8.606784704357169</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.110549125316439</v>
+        <v>-5.865575027816205</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4529019931255022</v>
+        <v>-1.214634102485801</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.020579108197198</v>
+        <v>-5.150049156937893</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.506596308220068</v>
+        <v>-3.781544837157648</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.262018999457661</v>
+        <v>1.272164815132958</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.01405872977147852</v>
+        <v>0.2181178926898523</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.602837118474728</v>
+        <v>5.190089607359496</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.050726151050219</v>
+        <v>8.320357091328546</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.162177312207979</v>
+        <v>2.266613101912844</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.935772116270359</v>
+        <v>2.709036814624934</v>
       </c>
     </row>
     <row r="25">
@@ -1170,19 +1170,19 @@
         <v>-0.03520084373518124</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.04916232240619599</v>
+        <v>-0.04916232240619638</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.001730227249708198</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.05525211460067142</v>
+        <v>0.05525211460067159</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.02000387776286276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.003361325372120476</v>
+        <v>-0.003361325372120619</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08426257581404462</v>
+        <v>-0.0865090727441136</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09968667162860906</v>
+        <v>-0.09770958509518433</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07085196679726047</v>
+        <v>-0.08076757497219171</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.006457454407768444</v>
+        <v>-0.01635544463781459</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06320188026417256</v>
+        <v>-0.06485136782488332</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.04414753758426281</v>
+        <v>-0.04727936829748774</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0147808719802128</v>
+        <v>0.01533386546775953</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.0001772675720233414</v>
+        <v>0.002634230389515822</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08350054936796454</v>
+        <v>0.07816692827315093</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1391742942195609</v>
+        <v>0.1261770975447717</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02889673716938801</v>
+        <v>0.0303498672827591</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0392641246106756</v>
+        <v>0.03549006125821988</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>3.452821890532476</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-2.086422074945837</v>
+        <v>-2.08642207494586</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.660534750840297</v>
+        <v>-1.317986329732896</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.811130471612947</v>
+        <v>-6.498831780414889</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.716208368202696</v>
+        <v>-3.135952614491232</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.13216562570255</v>
+        <v>-8.121684863349374</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.223476531342798</v>
+        <v>-0.3596486710984885</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.748152727197883</v>
+        <v>-5.578604258865042</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.842339073859593</v>
+        <v>9.17726655763305</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.221715093425369</v>
+        <v>3.346253205424358</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.18991910451142</v>
+        <v>10.51434769138397</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.090254554456304</v>
+        <v>3.078694950476225</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.41090797276997</v>
+        <v>7.874688469581917</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.697672508227785</v>
+        <v>2.303561252967446</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>0.04647629587813099</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.0280840346696518</v>
+        <v>-0.02808403466965209</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01945856615873034</v>
+        <v>-0.01338368207101017</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08050978809454612</v>
+        <v>-0.07664823310447261</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0399700798843886</v>
+        <v>-0.04521581436988314</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1131114202116681</v>
+        <v>-0.115869997570527</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01551568170749223</v>
+        <v>-0.0049820390119804</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.07462989880217835</v>
+        <v>-0.07262460365244382</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.113314844340801</v>
+        <v>0.1191316573429964</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.04128804937821853</v>
+        <v>0.04252987827127603</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1635338541218631</v>
+        <v>0.1642246726782319</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.04836014601696</v>
+        <v>0.04917942795892779</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1032418288362746</v>
+        <v>0.1086054870327131</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02334773717619466</v>
+        <v>0.03181107851997878</v>
       </c>
     </row>
     <row r="34">
@@ -1412,7 +1412,7 @@
         <v>-1.469666913160528</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-6.757629872914073</v>
+        <v>-6.75762987291405</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-3.854879668773969</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.329579992917283</v>
+        <v>-6.950099535428951</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.38483378755302</v>
+        <v>-11.09893941912903</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-9.944035188384076</v>
+        <v>-10.25506392203633</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-11.32612868679125</v>
+        <v>-11.49090008487461</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.113022914790257</v>
+        <v>-7.079005309793097</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.06159482308688</v>
+        <v>-10.19002352254967</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.391489180974331</v>
+        <v>3.465929397073622</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-1.340118888625095</v>
+        <v>-1.679266283416464</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.812737998123117</v>
+        <v>2.35682660360845</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.369192396237893</v>
+        <v>0.02977961790732144</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.37205974168998</v>
+        <v>1.696660072259376</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.216962066409893</v>
+        <v>-2.370009126091636</v>
       </c>
     </row>
     <row r="37">
@@ -1490,7 +1490,7 @@
         <v>-0.01668296931891053</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.07670944404398165</v>
+        <v>-0.0767094440439814</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.0506434679254284</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.07069626061258832</v>
+        <v>-0.07680434485476482</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1255997205241533</v>
+        <v>-0.1224093706274106</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1245559584311093</v>
+        <v>-0.1299037262540902</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1425167731867059</v>
+        <v>-0.1431030409003878</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.08501642061684969</v>
+        <v>-0.08472944335273909</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1200574800266176</v>
+        <v>-0.1215706946057551</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.05186136164652023</v>
+        <v>0.04026754423382804</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.01604684954307036</v>
+        <v>-0.02009967451082952</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.03860397373417259</v>
+        <v>0.03298655905916027</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.005551284922821849</v>
+        <v>0.002120268104670227</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.01785417437222603</v>
+        <v>0.02006487098287176</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.02780974118789638</v>
+        <v>-0.02967118164661261</v>
       </c>
     </row>
     <row r="40">
@@ -1572,7 +1572,7 @@
         <v>-0.4314646846574011</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-17.08106499523636</v>
+        <v>-17.08106499523637</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-2.427891382477365</v>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.963071539264547</v>
+        <v>-5.873403640027478</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-22.88009958794665</v>
+        <v>-23.53252682939251</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-8.888883648769962</v>
+        <v>-9.208479916405503</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-16.90851504254213</v>
+        <v>-16.16675633233353</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.11208131368141</v>
+        <v>-6.487210085934374</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-17.31612279751675</v>
+        <v>-17.41158588679641</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.406330884336677</v>
+        <v>5.91738202156481</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-11.06296114001749</v>
+        <v>-10.82694070341885</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.409767157282785</v>
+        <v>4.622031783927675</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-5.421961608434767</v>
+        <v>-5.594555842027071</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.000102374087033</v>
+        <v>2.980601995418381</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-8.765717817727117</v>
+        <v>-8.966117993748487</v>
       </c>
     </row>
     <row r="43">
@@ -1650,7 +1650,7 @@
         <v>-0.004845980825792256</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.1918453963775801</v>
+        <v>-0.1918453963775802</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.03144794046244254</v>
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.06394362304870002</v>
+        <v>-0.06293706764410111</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2495186624417901</v>
+        <v>-0.2569282518953727</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.111900947298899</v>
+        <v>-0.1122224842189499</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2075383267896884</v>
+        <v>-0.2016690518029622</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07301949961047009</v>
+        <v>-0.07705078792804931</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2078156083362791</v>
+        <v>-0.2062790232291887</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.06301252807017485</v>
+        <v>0.0692209150786227</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1283102241652975</v>
+        <v>-0.1281917619023409</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.05985898744883536</v>
+        <v>0.06287141132189794</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.07369754206221812</v>
+        <v>-0.07562128225099635</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.03757391029754691</v>
+        <v>0.03749662485499203</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1107648589009378</v>
+        <v>-0.113767173122048</v>
       </c>
     </row>
     <row r="46">
@@ -1732,7 +1732,7 @@
         <v>-0.686028857002785</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-1.949621732551032</v>
+        <v>-1.949621732551021</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>0.3351680449564132</v>
@@ -1744,7 +1744,7 @@
         <v>-0.1746758939779824</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.6776251861793869</v>
+        <v>-0.677625186179398</v>
       </c>
     </row>
     <row r="47">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.568546319285719</v>
+        <v>-2.442238347910718</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.689044401797864</v>
+        <v>-3.846873354932304</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.926282749982601</v>
+        <v>-1.973254961139206</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.406461201630292</v>
+        <v>-1.439948586315146</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.586908946064249</v>
+        <v>-1.593484151200894</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.959817666769427</v>
+        <v>-2.012644493519215</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.9993623143487624</v>
+        <v>1.047855985942995</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.04653818638495741</v>
+        <v>-0.1064686687776797</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.390329684000247</v>
+        <v>2.447127174853367</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.75686250227866</v>
+        <v>2.667625640805111</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.351769714857157</v>
+        <v>1.395571595092337</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.6369887226985947</v>
+        <v>0.6232658342233121</v>
       </c>
     </row>
     <row r="49">
@@ -1810,7 +1810,7 @@
         <v>-0.008083484526747396</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.02297241136027422</v>
+        <v>-0.02297241136027409</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.004570619270120213</v>
@@ -1822,7 +1822,7 @@
         <v>-0.002211333440408688</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.008578488995456459</v>
+        <v>-0.0085784889954566</v>
       </c>
     </row>
     <row r="50">
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.02991989311927876</v>
+        <v>-0.02833343061577163</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.04296524725304367</v>
+        <v>-0.04469309986301531</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.02609380250511132</v>
+        <v>-0.02646079150408985</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.01901505649082385</v>
+        <v>-0.01933078855814982</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.01999004792431251</v>
+        <v>-0.01994363401064777</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.0246756083608412</v>
+        <v>-0.0252585317019463</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01193171462957452</v>
+        <v>0.01249298887498465</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.0005464754553782491</v>
+        <v>-0.001366269073010802</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.03290325361135612</v>
+        <v>0.03361815860567567</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.03852073230201708</v>
+        <v>0.0369740865385397</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.01731707887410386</v>
+        <v>0.01780859926767213</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.008129649690718818</v>
+        <v>0.007958778202494679</v>
       </c>
     </row>
     <row r="52">
